--- a/media/files/refrifge.xlsx
+++ b/media/files/refrifge.xlsx
@@ -1910,10 +1910,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I46"/>
+  <dimension ref="B1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="189" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2599,186 +2599,6 @@
         <v>129</v>
       </c>
     </row>
-    <row r="29" spans="2:9" ht="189" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="6"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-    </row>
-    <row r="30" spans="2:9" ht="189" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="6"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-    </row>
-    <row r="31" spans="2:9" ht="189" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="6"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-    </row>
-    <row r="32" spans="2:9" ht="189" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="6"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-    </row>
-    <row r="33" spans="2:9" ht="189" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="6"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-    </row>
-    <row r="34" spans="2:9" ht="189" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="6"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-    </row>
-    <row r="35" spans="2:9" ht="189" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="6"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-    </row>
-    <row r="36" spans="2:9" ht="189" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="6"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-    </row>
-    <row r="37" spans="2:9" ht="189" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="6"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-    </row>
-    <row r="38" spans="2:9" ht="189" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="6"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
-    </row>
-    <row r="39" spans="2:9" ht="189" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="6"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
-    </row>
-    <row r="40" spans="2:9" ht="189" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="6"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
-    </row>
-    <row r="41" spans="2:9" ht="189" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="6"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
-      <c r="I41" s="6"/>
-    </row>
-    <row r="42" spans="2:9" ht="189" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="6"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
-      <c r="I42" s="6"/>
-    </row>
-    <row r="43" spans="2:9" ht="189" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="6"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="6"/>
-    </row>
-    <row r="44" spans="2:9" ht="189" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="6"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
-      <c r="I44" s="6"/>
-    </row>
-    <row r="45" spans="2:9" ht="189" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="6"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6"/>
-      <c r="I45" s="6"/>
-    </row>
-    <row r="46" spans="2:9" ht="189" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="6"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
-      <c r="I46" s="6"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
